--- a/data/trans_dic/P18_5_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P18_5_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido rebosante de energía en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido rebosante de energía en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>37,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,19%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>30,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>30,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>34,13%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>21,58%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>19,78%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>16,68%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>20,59%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,62; 43,78</t>
+          <t>19,94; 64,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 34,61</t>
+          <t>3,09; 67,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 15,82</t>
+          <t>1,91; 20,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,67; 14,21</t>
+          <t>2,43; 23,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,28; 39,95</t>
+          <t>2,53; 23,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,79; 23,55</t>
+          <t>18,44; 44,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,37; 32,9</t>
+          <t>9,56; 30,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,87; 25,51</t>
+          <t>19,44; 44,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,04; 37,62</t>
+          <t>12,73; 38,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,9; 25,31</t>
+          <t>14,32; 53,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,49; 23,12</t>
+          <t>23,02; 49,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,2; 19,49</t>
+          <t>10,77; 42,53</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>12,47; 28,5</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>9,58; 26,93</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>10,14; 38,49</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,19%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>31,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,92%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>26,81%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>9,22%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>11,83%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>16,65%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>13,68%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,95; 29,63</t>
+          <t>14,69; 28,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 13,17</t>
+          <t>4,06; 13,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,97; 15,53</t>
+          <t>6,33; 16,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,23; 17,35</t>
+          <t>7,74; 29,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,55; 38,16</t>
+          <t>6,31; 16,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,41; 14,97</t>
+          <t>24,8; 38,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,77; 18,84</t>
+          <t>7,01; 16,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,34; 23,67</t>
+          <t>8,77; 18,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,95; 32,26</t>
+          <t>13,86; 25,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,99; 12,5</t>
+          <t>11,4; 23,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,79; 15,55</t>
+          <t>22,04; 32,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,07; 18,42</t>
+          <t>6,41; 12,38</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>8,73; 16,05</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>12,38; 24,15</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>10,21; 17,77</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,0%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>11,67%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9,22%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>30,62%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6,94%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17,89%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14,93%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>14,48%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>27,38%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>14,48%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
           <t>13,44%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>32,13%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>8,94%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>18,64%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>16,14%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>28,82%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>8,63%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>15,19%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>14,86%</t>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>12,01%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,11; 31,93</t>
+          <t>16,63; 32,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 12,72</t>
+          <t>4,55; 15,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,42; 16,53</t>
+          <t>5,45; 16,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,96; 19,74</t>
+          <t>6,9; 18,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,41; 38,89</t>
+          <t>4,82; 15,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,36; 12,94</t>
+          <t>24,22; 38,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,0; 24,21</t>
+          <t>3,78; 11,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,86; 21,14</t>
+          <t>12,55; 24,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,72; 33,24</t>
+          <t>9,69; 21,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 11,52</t>
+          <t>9,71; 20,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,0; 18,57</t>
+          <t>21,81; 32,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,73; 18,53</t>
+          <t>4,96; 11,06</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>11,11; 19,08</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>9,76; 17,93</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>8,72; 16,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,58; 29,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,29; 13,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,98; 13,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,24; 14,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,27; 35,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,65; 13,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,99; 21,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,46; 20,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,56; 30,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,15; 13,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,02; 16,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,04; 16,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>24,37%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10,68%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10,02%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12,7%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10,13%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>31,21%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10,19%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17,55%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18,11%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18,31%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>28,02%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,42%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>13,96%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>15,46%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>14,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18,9; 31,26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,74; 21,16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7,07; 13,64</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8,67; 21,34</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7,08; 14,28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>26,86; 36,12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7,56; 13,39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14,27; 21,57</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14,24; 22,13</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14,08; 24,51</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>24,77; 31,72</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>7,98; 15,01</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>11,5; 16,69</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>12,89; 19,72</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>11,49; 18,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido rebosante de energía en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,6%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>39064</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>32325</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8635</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10542</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16854</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>34891</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>25608</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>35068</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>28572</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>62524</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>73955</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>57933</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>43703</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>39114</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>79378</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>20609; 66897</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3890; 84766</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2012; 21146</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2777; 26544</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4425; 41688</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20903; 50714</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13624; 43554</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22452; 51200</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>15323; 46427</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>30152; 113011</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>49882; 106343</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>28896; 114149</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>27552; 62981</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>22465; 63142</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>39088; 148406</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>77433</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>32367</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>38776</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>57540</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>56134</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>124476</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>49615</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>50601</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>71232</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>81466</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>201909</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>81982</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>89376</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>128772</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>137601</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>53263; 103820</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17431; 58865</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>23804; 60942</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>30915; 118599</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>32410; 87128</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>96877; 151224</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>32244; 74587</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>33239; 70987</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>51790; 93804</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>56167; 113660</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>166001; 241268</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>56953; 110103</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>65962; 121255</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>95745; 186758</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>102769; 178761</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>66758</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>30189</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>29124</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>32143</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>32572</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>108918</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29570</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>61652</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>48568</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>57478</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>175677</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>59759</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>90775</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>80711</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>90050</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>47543; 92277</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15153; 50032</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15388; 46743</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19002; 50497</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>17043; 55221</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>86161; 135381</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16104; 50756</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>43245; 85957</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31512; 69319</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>38525; 80319</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>139927; 208916</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>37647; 83928</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>69642; 119617</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>58648; 107709</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>65404; 120043</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>183256</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>94882</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>76535</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>100226</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>105560</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>268285</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>104793</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>147320</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>148372</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>201469</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>451541</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>199675</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>223855</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>248598</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>307029</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>142102; 235021</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>59848; 187965</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>54003; 104261</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>68433; 168403</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>73719; 148790</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>230942; 310550</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>77693; 137695</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>119723; 181054</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>116670; 181332</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>154870; 269692</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>399120; 511199</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>152945; 287749</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>184386; 267669</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>207353; 317241</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>246061; 397175</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
